--- a/docs/projektplan/TechnischeRisiken.xlsx
+++ b/docs/projektplan/TechnischeRisiken.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siegbert/Documents/GitHub/examibur/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siegbert/Documents/GitHub/examibur/docs/projektplan/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Risikotabelle" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -641,58 +641,58 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E8" s="8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" ref="F8:F11" si="0">D8*E8</f>
-        <v>6.4</v>
+        <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E9" s="8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>6.4</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">

--- a/docs/projektplan/TechnischeRisiken.xlsx
+++ b/docs/projektplan/TechnischeRisiken.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -89,52 +89,97 @@
     <t>Patrick Scherler</t>
   </si>
   <si>
-    <t>SpringBoot Framework zu komplex</t>
-  </si>
-  <si>
-    <t>Auswertung der Prüfungsaufgaben-Identifikation zu aufwändig</t>
-  </si>
-  <si>
-    <t>Das Auslesen der QR- oder Strichcodes mit den Aufgaben-IDs / Metadaten erweist sich als zu aufwändig.</t>
-  </si>
-  <si>
-    <t>Es ist zu wenig Know-How zu den eingesetzten Frameworks vorhanden und die Einarbeitung benötigt deutlich mehr Zeit als geplant.</t>
-  </si>
-  <si>
-    <t>Es entsteht eine unerwartete Komplexität im HSR Prüfungsprozess (z.B. Prüfung mit mehreren Teilen, spezielle Aufgabentypen)</t>
-  </si>
-  <si>
-    <t>Unerwartete Komplexität im HSR Prüfungsprozess</t>
-  </si>
-  <si>
-    <t>Technische Schwierigkeiten bei der implementierung eines Grafikeditors oder der Persistierung dieser manuellen Korrekturen.</t>
-  </si>
-  <si>
-    <t>Das Feature kann ersatzlos weggelassen werden. Für die Korrekturen steht zusätzlich ein Textfeld zur Verfügung.</t>
-  </si>
-  <si>
-    <t>verschiedene Verfahren ausprobieren und einen frühen Prototypen erstellen</t>
-  </si>
-  <si>
     <t>saubere Einarbeitung in die verwendeten Technologien und gesammelte Erfahrungen in den Sitzungen austauschen</t>
   </si>
   <si>
     <t>Zeit für weitere Einarbeitung einplanen oder gegebenenfalls auf ein anderes Framework umsteigen</t>
   </si>
   <si>
-    <t>Prüfungskorrekturen direkt in den Aufgabenbildern nicht umsetzbar</t>
-  </si>
-  <si>
-    <t>einen frühen Prototypen erstellen und Feature als optional definieren</t>
-  </si>
-  <si>
     <t>Den Prüfungsprozess der HSR genau studieren und falls nötig bereits vor der Implementierung Vereinfachungen vornehmen</t>
   </si>
   <si>
     <t>Konzept auf neue Situation anpassen oder gegebenenfalls gewisse Prozesse oder Gegebenheiten vereinfachen</t>
   </si>
   <si>
-    <t>Alternative für die Aufgabenerkennung finden oder ganz weglassen</t>
+    <t>Anforderungen an Infrastruktur</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>Komplexität im HSR Prüfungsprozess</t>
+  </si>
+  <si>
+    <t>Komplexität der Technologien</t>
+  </si>
+  <si>
+    <t>Es ist zu wenig Know-How zu den eingesetzten Frameworks (z.B. Spring Boot) vorhanden und die Einarbeitung benötigt deutlich mehr Zeit als geplant.</t>
+  </si>
+  <si>
+    <t>Anforderungen an Technologien</t>
+  </si>
+  <si>
+    <t>Die evaluierten Technologien und Frameworks (z.B. Spring Boot) erfüllen nicht die projektspezifischen Bedürfnisse.</t>
+  </si>
+  <si>
+    <t>Die evaluierten Tools (z.B. GitLab CI) erfüllen nicht die Anforderungen unseres Projekts.</t>
+  </si>
+  <si>
+    <t>Scope des Projekts zu gross</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>Bestimmungen im HSR Prüfungsreglement oder z.B. Datenschutzbestimmungen, die eine Konzeptänderung erfordern.</t>
+  </si>
+  <si>
+    <t>Ausfall oder Datenverlust bei GitLab</t>
+  </si>
+  <si>
+    <t>gründliche Evaluation der einzusetzenden Technologien und umfangreicher Prototyp der Gesamtlösung implementieren</t>
+  </si>
+  <si>
+    <t>gründliche Evaluation der einzusetzenden Infrastruktur und Überprüfung der Funktionalität durch Testprojekte</t>
+  </si>
+  <si>
+    <t>Der Projektumfang ist nicht genügend eingegrenzt und die Implementation passt nicht in den Zeitplan.</t>
+  </si>
+  <si>
+    <t>Scope genau definieren und frühzeitig reagieren, wenn zu viele User-Stories nicht abgeschlossen werden können</t>
+  </si>
+  <si>
+    <t>Scope weiter kürzen oder Zeitplan entsprechend anpassen</t>
+  </si>
+  <si>
+    <t>Technologien erweitern oder durch Alternative ersetzen</t>
+  </si>
+  <si>
+    <t>Tool durch Plugins / Konfiguration erweitern oder durch Alternative ersetzen</t>
+  </si>
+  <si>
+    <t>Prüfungsreglement der HSR studieren und gelernte Datenschutzbestimmungen aus den InfSi-Modulen umsetzen</t>
+  </si>
+  <si>
+    <t>Konzept muss angepasst werden, um den Bestimmungen zu entsprechen!</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>Bei GitLab kam es in der Vergangenheit bereits einmal zu einem kürzeren Ausfall mit Datenverlust.</t>
+  </si>
+  <si>
+    <t>Es entsteht eine unerwartete Komplexität im HSR Prüfungsprozess (z.B. Prüfung mit mehreren Teilen, spezielle Aufgabentypen).</t>
+  </si>
+  <si>
+    <t>Regelmässige Backups von Gitlab und dem Projekte Server werden mindestens drei Mal wöchentlich ausgelöst, gesichert und verifiziert.</t>
+  </si>
+  <si>
+    <t>Meldungen von GitLab beachten und gegebenenfalls Backup wiederherstellen</t>
+  </si>
+  <si>
+    <t>HSR Prüfungsreglement / Datenschutz</t>
   </si>
 </sst>
 </file>
@@ -542,11 +587,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:B15"/>
+      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -557,7 +602,7 @@
     <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.1640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="7.33203125" style="1"/>
   </cols>
@@ -608,8 +653,8 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="2">
-        <f>SUM(F8:F14)</f>
-        <v>35.199999999999996</v>
+        <f>SUM(F8:F15)</f>
+        <v>40.800000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -641,58 +686,58 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7">
         <v>32</v>
       </c>
       <c r="E8" s="8">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" ref="F8:F11" si="0">D8*E8</f>
-        <v>16</v>
+        <f>D8*E8</f>
+        <v>9.6</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E9" s="8">
         <v>0.4</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
+        <f>D9*E9</f>
+        <v>12.8</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
@@ -700,103 +745,164 @@
         <v>12</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7">
+        <v>32</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="7">
+        <f>D10*E10</f>
+        <v>6.4</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="7">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F11" s="7">
+        <f>D11*E11</f>
+        <v>2.4</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="7">
+        <v>16</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" ref="F12:F14" si="0">D12*E12</f>
+        <v>3.2</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="7">
-        <v>8</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="C13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="7">
+        <v>16</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="7">
         <v>32</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="7">
-        <v>16</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="E14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="7">
         <f t="shared" si="0"/>
-        <v>9.6</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+        <v>3.2</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="D15" s="9">
-        <f>SUM(D8:D13)</f>
-        <v>72</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="9">
-        <f>SUM(F8:F13)</f>
-        <v>35.199999999999996</v>
+      <c r="B16" s="12"/>
+      <c r="D16" s="9">
+        <f>SUM(D8:D14)</f>
+        <v>168</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="9">
+        <f>SUM(F8:F14)</f>
+        <v>40.800000000000004</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
